--- a/scripts/excelread/taoist_lang_vol.1.03.xlsx
+++ b/scripts/excelread/taoist_lang_vol.1.03.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1466">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,9 +893,6 @@
     <t>BET</t>
   </si>
   <si>
-    <t>COIN VALUE</t>
-  </si>
-  <si>
     <t>WIN</t>
   </si>
   <si>
@@ -905,9 +902,6 @@
     <t>FREE SPINS</t>
   </si>
   <si>
-    <t>{0}COINS</t>
-  </si>
-  <si>
     <t>VOLUME</t>
   </si>
   <si>
@@ -1232,9 +1226,6 @@
     <t>TOTAL VINST</t>
   </si>
   <si>
-    <t>{0}MYNT</t>
-  </si>
-  <si>
     <t>VOLYM</t>
   </si>
   <si>
@@ -2021,9 +2012,6 @@
     <t>FREISPIELE</t>
   </si>
   <si>
-    <t>{0}MÜNZEN</t>
-  </si>
-  <si>
     <t>VOLUMEN</t>
   </si>
   <si>
@@ -2330,9 +2318,6 @@
     <t>ILMAISKIERROKSET</t>
   </si>
   <si>
-    <t>{0}KOLIKKOA</t>
-  </si>
-  <si>
     <t>ÄÄNENVOIMAKKUUS</t>
   </si>
   <si>
@@ -2793,9 +2778,6 @@
   </si>
   <si>
     <t>ФРИСПИНЫ</t>
-  </si>
-  <si>
-    <t>{0} МОНЕТЫ</t>
   </si>
   <si>
     <t>ГРОМКОСТЬ</t>
@@ -4180,9 +4162,6 @@
     <t>GIRI GRATUITI</t>
   </si>
   <si>
-    <t>{0}GETTONI</t>
-  </si>
-  <si>
     <t>TABELLA DEI PAGAMENTI</t>
   </si>
   <si>
@@ -4467,10 +4446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}代币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4720,6 +4695,46 @@
   </si>
   <si>
     <t>&lt;h3&gt;Benvenuto alla video slot di BOOKS OF TAO, con la funzione Special Expanding Symbol Spins e la modalità Giochi Gratuiti.&lt;/h3&gt;&lt;h4&gt;Informazioni sul Gioco   &lt;/h4&gt;BOOKS OF TAO è una Video Slot con 5 rulli, 10 linee di gioco fisse con funzioni casuali  come lo Special Expanding Symbol Spins durante il normale gioco, e giri gratuiti dove ognuno è uno Special Expanding Symbol Spin. Il gioco ha 9 simboli standard e un simbolo Wild/Scatter che sostituisce tutti gli altri, tranne lo Special Expanding Symbols, e attiva la funzione Giri Gratuiti.&lt;h4&gt;Regole del gioco&lt;/h4&gt;Scegli il valore del tuo gettone. Vengono giocate 10 linee.&lt;br /&gt;La puntata totale è 20 moltiplicato per il valore del gettone.&lt;br /&gt;Le combinazioni vincenti e i premi sono calcolati secondo la Tabella dei pagamenti&lt;br /&gt;La più alta vincita solo su ogni linea.&lt;br /&gt;Tutte le vincita partono dal rullo più a sinistra e pagano da sinistra verso destra sui rulli adiacenti, ad eccezione degli Scatters che pagano in qualsiasi rullo.&lt;br /&gt;Tutte le vincite  avvengono sulle linee di gioco tranne lo Scatter che paga in qualsiasi rullo. &lt;br /&gt;Sono state aggiunte vincite in differenti linee di gioco.&lt;br /&gt;Le vincite Scatter vengono aggiunte alle linee di vincita.&lt;br /&gt;le linee di vincita vengono calcolate con il valore del gettone.&lt;br /&gt;Le vincite scatter sono moltiplicate per la puntata totale.&lt;br /&gt;Il simbolo Wild sostituisce tutti gli altri simboli, tranne i simboli special expanding.&lt;h4&gt;Simbolo Special Expanding Spin&lt;/h4&gt;Un giro con lo Special Expanding Symbol può essere concesso all'inizio di ogni partita.&lt;br /&gt;All'inizio di ogni giro i Simboli Special Expanding  possono essere selezionati fino a tre simboli che possono diventare Simboli Special Expanding.&lt;br /&gt;I Simboli Special Expanding si espandono per coprire tutte le posizioni nel rullo.&lt;br /&gt;I Simboli Special Expanding si espandono solo in caso di vincita.&lt;br /&gt;I Simboli Special Expanding pagano su ogni linea.&lt;br /&gt;I Simboli Special Expanding oltre alle vincite da sinistra a destra pagano anche le vincite scatter. &lt;h4&gt;FUNZIONE GIRI GRATUITI&lt;/h4&gt;3 o più Wild/Scatter ovunque sullo schermo attivano la funzione Giri Gratuiti.&lt;br /&gt;10 giri gratuiti ottenuti.&lt;br /&gt;All'inizio della Modalità Free Spins possono essere selezionati fino a tre simboli che possono diventare Simboli Special Expanding.&lt;br /&gt;I Simboli Special Expanding si espandono per coprire tutte le posizioni nel rullo.&lt;br /&gt;I Simboli Special Expanding si espandono solo in caso di vincita.&lt;br /&gt;I Simboli Special Expanding pagano su ogni linea.&lt;br /&gt;I Simboli Special Expanding oltre alle vincite da sinistra a destra pagano anche le vincite scatter. &lt;br /&gt;La funzione Giri Gratuiti può essere riattivata più volte consecutive.&lt;br /&gt;Il valore del gettone è lo stesso del gioco che ha attivato la funzione Giri Gratuiti. &lt;h4&gt;Ritorno al giocatore (RTP)&lt;/h4&gt;Il teorico ritorno al giocatore complessivo (RTP) è del 96,51%&lt;h4&gt;How to Play&lt;/h4&gt;Select the coin value&lt;br /&gt;Press the Spin Button to start game&lt;h4&gt;Opzioni di Gioco automatico&lt;/h4&gt;Numero di spin: la sessione di gioco automatico terminerà quando viene raggiunto il numero di spin &lt;br /&gt;Limite di perdita: La sessione di gioco automatico terminerà se le tue perdite totali nel round di autospin raggiunge o supera il limite selezionato &lt;br /&gt;Limite di vincita: La sessione di gioco automatico terminerà se la vincita di un singolo spin raggiunge o supera il limite selezionato.&lt;h4&gt;Come calcolare le vincite&lt;/h4&gt;Il premio per ogni simbolo E inserito nella Tabella dei pagamenti per tutte le vincite&lt;br /&gt;Moltiplicare la vincita del gettone per il valore gettone nella propria valuta nazionale&lt;h4&gt;Opzioni del gioco&lt;/h4&gt;Clicca sull'icona opzioni per espandere o ridurre la barra delle opzioni&lt;br /&gt;Volume – Accende o spegne il suono&lt;br /&gt;TABELLA DEI PAGAMENTI - Spiega le principali caratteristiche del gioco, mostra tutti I premi (puo' eseguire visualizzazione del denaro o del gettone) e le linee I modi in cui si vince&lt;br /&gt;Settings: Modifica la velocita' di gioco, il volume del suono e altre opzioni&lt;br /&gt;Regole del gioco - Apre le regole di gioco&lt;br /&gt;Cronologia - Quando questa opzione e' attiva sul tuo sito di gaming, puoi rivedere dei tuoi ultimi 10 round di gioco&lt;br /&gt;Tasto Home - Torna alla lobby&lt;h4&gt;Pannello di Gioco&lt;/h4&gt;Puntata – La puntata è sempre di 20 gettoni per ogni giro. &lt;br /&gt;Valore del gettone - Cambia la Puntata totale cambiando il valore del gettone. Per trasformare ogni puntata o vincita in gettoni nella valuta corrente, moltiplica il totale dei gettoni (20) per la valuta del gettone.&lt;br /&gt;Puntata totale - Mostra la puntata totale nel valore gettone selezionato. Cliccare sul campo selezionato alterna tra la visualizzazione del denaro o del gettone&lt;br /&gt;Massima Puntata - Imposta il valore del gettone al piu' alto valore possibile. Cliccare il bottone una seconda volta riporta il valore al valore iniziale (Solo su Desktop)&lt;br /&gt;Tasto Spin - Avvia il gioco&lt;br /&gt;Tasto Autoplay - Apre le opzioni di gioco automatico. Se Autoplay e' attivo, cliccare su questo bottone interrompe il gioco automatico.&lt;br /&gt;Win - Mostra la vincita nell'ultimo step o in quello in corso. Cliccare sul campo selezionato alterna tra la visualizzazione del denaro o del gettone&lt;br /&gt;Balance - Mostra il saldo del giocatore. Cliccare sul campo selezionato alterna tra la visualizzazione del denaro o del gettone&lt;br /&gt;Tasto Stop - Interrompe il gioco&lt;h4&gt;Scorciatoie da tastiera &lt;/h4&gt;Barra spaziatrice – Premi la barra spaziatrice per far girare</t>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamerules_content_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Welcome to BOOKS OF TAO video slot, with Special Expanding Symbol Spins and a Free Games Feature.&lt;/h3&gt;&lt;h4&gt;About the Game&lt;/h4&gt;BOOKS OF TAO is a 5 reel, 10 fixed paylines Video Slot that features random Special Expanding Symbol Spins during the base game and Free Games where every spin is a Special Expanding Symbol Spin. The game has 9 regular symbols and a Wild/Scatter symbol that substitutes for all other symbols, except Special Expanding Symbols, and triggers the Free Games Feature&lt;h4&gt;Return to Player&lt;/h4&gt;The overall theoretical return to player is 96.51%&lt;br /&gt;The maximum recorded win is x2500 and it happened 926 times in 1.000.000.000 simulated game rounds&lt;h4&gt;Game Rules&lt;/h4&gt;Choose your bet value. 10 lines are played.&lt;br /&gt;Winning combinations and payouts are made according to the paytable&lt;br /&gt;Highest win only on each line&lt;br /&gt;All wins begin with leftmost reel and pay left to right on adjacent reels, except Scatters which pay any&lt;br /&gt;All wins on played lines only except scatters.&lt;br /&gt;Wins on different lines are added&lt;br /&gt;Scatter wins are added to line wins&lt;br /&gt;Wild substitutes for all symbols, except special expanding symbols&lt;h4&gt;Special Expanding Symbol Spin&lt;/h4&gt;A Special Expanding Symbol Spin may be awarded at the start of any base game&lt;br /&gt;Up to 3 symbols are selected at the start of the Special Expanding Symbol Spin to become Special Expanding Symbols&lt;br /&gt;Special Expanding Symbols expand to cover all positions on the reel&lt;br /&gt;Special Expanding Symbols will only expand if a win will result&lt;br /&gt;Special Expanding Symbols pay any on a line&lt;br /&gt;Special Expanding Symbols pay in addition to left to right line and scatter wins&lt;h4&gt;Free Games Feature&lt;/h4&gt;3 or more Wild/Scatter anywhere on the screen triggers the Free Games Feature.&lt;br /&gt;10 Free Games are awarded.&lt;br /&gt;Up to 3 symbols are selected at the start of the Free Games Feature to become Special Expanding Symbols.&lt;br /&gt;Special Expanding Symbols expand to cover all positions on the reel.&lt;br /&gt;Special Expanding Symbols will only expand if a win will result.&lt;br /&gt;Special Expanding Symbols pay any on a line.&lt;br /&gt;Special Expanding Symbols pay in addition to left to right line and scatter wins.&lt;br /&gt;Free Games Feature can be triggered again during the Free Games Feature.&lt;br /&gt;Bet value is the same as the game that triggered the Free Games Feature.&lt;h4&gt;How to Play&lt;/h4&gt;Select the bet value&lt;br /&gt;Press the Spin Button to start game&lt;h4&gt;How to Calculate Wins&lt;/h4&gt;Each symbol's payout is listed in the paytable for all wins&lt;h4&gt;Game Options&lt;/h4&gt;Click the options icon to expand or collapse the options tray&lt;br /&gt;Volume - Turns the sounds on or off&lt;br /&gt;Paytable - Explains the main features in the game, displays all payouts  and shows the lines or ways to win&lt;br /&gt;Settings - Change the game speed, sound volume, and other settings&lt;br /&gt;Game Rules - Opens the rules of the game&lt;br /&gt;History - If this feature is enabled on your gaming website, you may review and replay your last 10 game rounds&lt;h4&gt;Game Panel&lt;/h4&gt;Bet - The bet is always 20 per spin.&lt;br /&gt;Bet Value - Changes the bet size by changing the bet value.&lt;br /&gt;Total bet - Shows the total bet at the selected bet value.&lt;br /&gt;Max Bet - Sets the bet value to the largest available. Pressing the button a second time returns it to its original state (Desktop only)&lt;br /&gt;Spin Button - Starts the game&lt;br /&gt;Win - Displays the win for the current or last payout step.&lt;br /&gt;Balance - Displays the player's account balance.&lt;h4&gt;Keyboard Shortcuts&lt;/h4&gt;Space Bar - Press the space bar to spin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BET VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiScreen_Label2_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIN VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5457,11 +5472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N150" sqref="N150"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5504,10 +5519,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5515,34 +5530,34 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5556,28 +5571,28 @@
         <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5591,28 +5606,28 @@
         <v>258</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5626,28 +5641,28 @@
         <v>259</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5661,28 +5676,28 @@
         <v>260</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5690,34 +5705,34 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5725,34 +5740,34 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5766,28 +5781,28 @@
         <v>263</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5795,34 +5810,34 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5839,25 +5854,25 @@
         <v>265</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5871,28 +5886,28 @@
         <v>266</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,28 +5921,28 @@
         <v>267</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5935,34 +5950,34 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5976,28 +5991,28 @@
         <v>261</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6011,28 +6026,28 @@
         <v>262</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6046,28 +6061,28 @@
         <v>263</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6075,34 +6090,34 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6110,34 +6125,34 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6145,34 +6160,34 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6186,28 +6201,28 @@
         <v>271</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,34 +6230,34 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6250,34 +6265,34 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6291,28 +6306,28 @@
         <v>274</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6326,28 +6341,28 @@
         <v>275</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6358,31 +6373,31 @@
         <v>211</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6390,34 +6405,34 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6425,34 +6440,34 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6460,34 +6475,34 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6495,34 +6510,34 @@
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6530,34 +6545,34 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>280</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6568,31 +6583,31 @@
         <v>212</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6606,28 +6621,28 @@
         <v>281</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6641,28 +6656,28 @@
         <v>282</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6676,28 +6691,28 @@
         <v>283</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6711,28 +6726,28 @@
         <v>284</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6746,28 +6761,28 @@
         <v>285</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6781,28 +6796,28 @@
         <v>286</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6810,4991 +6825,4955 @@
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>287</v>
+        <v>1465</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1391</v>
-      </c>
+        <v>1464</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>288</v>
+        <v>219</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>756</v>
+        <v>530</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>751</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1179</v>
+        <v>1048</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1398</v>
+        <v>388</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>391</v>
+        <v>531</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>752</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>391</v>
+        <v>1285</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>289</v>
+        <v>220</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1173</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>392</v>
+        <v>1390</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>757</v>
+        <v>532</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>1292</v>
+        <v>389</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>914</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>1457</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>292</v>
+        <v>1458</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>394</v>
+        <v>1456</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>292</v>
+        <v>1456</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>1460</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1406</v>
+        <v>391</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1295</v>
+        <v>290</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>761</v>
+        <v>210</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>751</v>
+        <v>223</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>659</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>762</v>
+        <v>224</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>226</v>
+        <v>1049</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>541</v>
+        <v>1397</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>292</v>
+        <v>1290</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>396</v>
+        <v>1399</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>295</v>
+        <v>656</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1298</v>
+        <v>290</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>1408</v>
+        <v>393</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1409</v>
+        <v>294</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>1410</v>
+        <v>394</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>767</v>
+        <v>229</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>297</v>
+        <v>1293</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1301</v>
+        <v>295</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>659</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>762</v>
+        <v>231</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>917</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>300</v>
+      <c r="C59" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>300</v>
+        <v>654</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>924</v>
+        <v>756</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>769</v>
+        <v>1289</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>663</v>
+        <v>232</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>770</v>
+        <v>1391</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1302</v>
+        <v>764</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1393</v>
+        <v>299</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>302</v>
+        <v>1392</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>302</v>
+        <v>545</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>302</v>
+        <v>659</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>303</v>
+        <v>1385</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>549</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>664</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>665</v>
+        <v>235</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>1395</v>
+        <v>766</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>1402</v>
+        <v>920</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1397</v>
+        <v>1296</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>304</v>
+        <v>1386</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>1401</v>
+        <v>661</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>304</v>
+        <v>1389</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>653</v>
+        <v>237</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>1393</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>391</v>
+        <v>1388</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>911</v>
+        <v>1395</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>305</v>
+        <v>1173</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>755</v>
-      </c>
       <c r="H66" s="6" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1290</v>
+        <v>389</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>1136</v>
+      <c r="C68" s="3" t="s">
+        <v>1384</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>928</v>
+        <v>662</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>921</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1442</v>
+        <v>1297</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="C70" s="4" t="s">
-        <v>306</v>
+        <v>1131</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>667</v>
+        <v>1236</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>308</v>
+        <v>553</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>308</v>
+        <v>664</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>308</v>
+        <v>1300</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1056</v>
+        <v>244</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1138</v>
+        <v>306</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>557</v>
+        <v>306</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>669</v>
+        <v>306</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1308</v>
+        <v>306</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>410</v>
+        <v>1050</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1200</v>
+        <v>554</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>934</v>
+        <v>665</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>411</v>
+        <v>1051</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>558</v>
+        <v>1194</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>935</v>
+        <v>666</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1243</v>
+        <v>668</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>419</v>
+        <v>314</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>1068</v>
+        <v>90</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1061</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>421</v>
+        <v>1135</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>1201</v>
+        <v>564</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1459</v>
+        <v>1136</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1458</v>
+        <v>1313</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>1070</v>
+        <v>92</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1063</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>317</v>
+        <v>1451</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>1321</v>
+        <v>1450</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1071</v>
+        <v>93</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1064</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1143</v>
+        <v>315</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1192</v>
+        <v>420</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>245</v>
+        <v>1065</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>318</v>
+        <v>1137</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>319</v>
+        <v>1138</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>568</v>
+        <v>1200</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>673</v>
+        <v>1250</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1072</v>
+        <v>247</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1145</v>
+        <v>317</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>424</v>
+        <v>1189</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1257</v>
+        <v>669</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1443</v>
+        <v>1318</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>216</v>
+        <v>1066</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>320</v>
+        <v>1139</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>648</v>
+        <v>1251</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1326</v>
+        <v>1435</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1073</v>
+        <v>216</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1460</v>
+        <v>318</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1258</v>
+        <v>645</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>741</v>
+        <v>793</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1437</v>
+        <v>1319</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>276</v>
+        <v>1452</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1327</v>
+        <v>1429</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1074</v>
+        <v>1043</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1146</v>
+        <v>276</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>799</v>
+        <v>738</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1233</v>
+        <v>1254</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>745</v>
+        <v>794</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1440</v>
+        <v>1321</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1075</v>
+        <v>1046</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1261</v>
+        <v>1227</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>957</v>
+        <v>894</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>674</v>
+        <v>1255</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1232</v>
+        <v>670</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1077</v>
+        <v>1045</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>212</v>
+        <v>1071</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>803</v>
+        <v>742</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1078</v>
+        <v>212</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1152</v>
+        <v>1129</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>902</v>
+        <v>955</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1329</v>
+        <v>1438</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>248</v>
+        <v>1072</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>675</v>
+        <v>1230</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>804</v>
+        <v>744</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>962</v>
+        <v>897</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1447</v>
+        <v>1322</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>1147</v>
+      </c>
       <c r="D105" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="106" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>321</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>1391</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1154</v>
+        <v>319</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1213</v>
+        <v>672</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>725</v>
+        <v>801</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1449</v>
+        <v>1411</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1041</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>638</v>
+        <v>1208</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>1421</v>
+        <v>1441</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1079</v>
+        <v>1035</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>322</v>
+        <v>1150</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1216</v>
+        <v>635</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>201</v>
+        <v>1073</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1157</v>
+        <v>320</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1043</v>
+        <v>201</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1262</v>
+        <v>1211</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>807</v>
+        <v>724</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>882</v>
+        <v>962</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>208</v>
+        <v>1037</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>323</v>
+        <v>1152</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>577</v>
+        <v>505</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>646</v>
+        <v>1256</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>969</v>
+        <v>877</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1196</v>
+        <v>435</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1450</v>
+        <v>1424</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>364</v>
+        <v>1190</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1427</v>
+        <v>1442</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1044</v>
+        <v>205</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1080</v>
+        <v>1038</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>207</v>
+        <v>1074</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>968</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>882</v>
+        <v>962</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1045</v>
+        <v>202</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>975</v>
+        <v>877</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>250</v>
+        <v>1040</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>326</v>
+        <v>674</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>812</v>
+        <v>731</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1451</v>
+        <v>1423</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1081</v>
+        <v>250</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>679</v>
+        <v>324</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>328</v>
+        <v>1444</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1330</v>
+        <v>326</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1159</v>
+        <v>327</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>330</v>
+        <v>1153</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1263</v>
+        <v>682</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1160</v>
+        <v>333</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>336</v>
+        <v>1154</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>687</v>
+        <v>1259</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>251</v>
+        <v>1086</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1161</v>
+        <v>334</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1266</v>
+        <v>683</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1093</v>
+        <v>251</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>337</v>
+        <v>1156</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1163</v>
+        <v>335</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>688</v>
+        <v>1262</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1269</v>
+        <v>684</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>338</v>
+        <v>1158</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1165</v>
+        <v>336</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>689</v>
+        <v>1264</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>252</v>
+        <v>1092</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>339</v>
+        <v>1159</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1099</v>
+        <v>252</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1166</v>
+        <v>337</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1453</v>
+        <v>1340</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>1271</v>
+        <v>687</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1348</v>
+        <v>1445</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>692</v>
+        <v>1265</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>340</v>
+        <v>1162</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1272</v>
+        <v>688</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1169</v>
+        <v>338</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>693</v>
+        <v>1266</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="149" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>341</v>
+        <v>1163</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1273</v>
+        <v>689</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="150" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1170</v>
+        <v>339</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>694</v>
+        <v>1267</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="151" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>342</v>
+        <v>1164</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1171</v>
+        <v>340</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="153" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>253</v>
+        <v>1101</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>343</v>
+        <v>1165</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="154" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1108</v>
+        <v>253</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1172</v>
+        <v>341</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>1274</v>
+        <v>693</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="155" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="B156" s="3" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>473</v>
+        <v>1191</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>845</v>
+        <v>1269</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>1385</v>
+        <v>1003</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1358</v>
+        <v>1455</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="157" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>1111</v>
-      </c>
+      <c r="A157" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B157" s="3"/>
       <c r="C157" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>1391</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
     </row>
     <row r="158" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>613</v>
+        <v>1202</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>1010</v>
+        <v>1378</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="159" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>614</v>
+        <v>1203</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>1011</v>
+        <v>1379</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="160" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>344</v>
+        <v>1170</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="161" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>225</v>
+        <v>1107</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>345</v>
+        <v>1171</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>702</v>
+        <v>611</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="162" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1178</v>
+        <v>342</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>1454</v>
+        <v>1355</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="163" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>659</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>762</v>
+        <v>225</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>917</v>
+        <v>1007</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>1297</v>
+        <v>1356</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="164" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>852</v>
+        <v>1109</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>846</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>1364</v>
+        <v>1446</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="165" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1117</v>
+        <v>1049</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>618</v>
+        <v>297</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>481</v>
+        <v>1404</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>618</v>
+        <v>1405</v>
       </c>
       <c r="F165" s="21" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>853</v>
+        <v>757</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>1365</v>
+        <v>1290</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="166" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>651</v>
+        <v>1110</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>700</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>909</v>
+        <v>1009</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="167" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1054</v>
+        <v>1111</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>288</v>
+        <v>615</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>910</v>
+        <v>1010</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>1291</v>
+        <v>1358</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="168" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>1415</v>
+        <v>303</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1416</v>
+        <v>387</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>391</v>
+        <v>751</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>391</v>
+        <v>1359</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="169" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1120</v>
+        <v>1048</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>706</v>
+        <v>287</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>854</v>
+        <v>752</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>1367</v>
+        <v>1285</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="170" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>1180</v>
+        <v>1113</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>1407</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>484</v>
+        <v>1408</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>855</v>
+        <v>650</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1018</v>
+        <v>906</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>1368</v>
+        <v>389</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="171" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>1417</v>
+        <v>702</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="172" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>346</v>
+        <v>1174</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>621</v>
+        <v>481</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="173" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>858</v>
+        <v>1116</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>851</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="174" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1181</v>
+        <v>344</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="175" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1182</v>
+        <v>345</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="176" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="177" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>254</v>
+        <v>1120</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>354</v>
+        <v>486</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>1456</v>
+        <v>1366</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>348</v>
+        <v>1177</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1198</v>
+        <v>487</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="179" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>349</v>
+        <v>1178</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1199</v>
+        <v>352</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>1365</v>
+        <v>1448</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="180" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>208</v>
+        <v>1122</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>491</v>
+        <v>1192</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1455</v>
+        <v>1357</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="181" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>492</v>
+        <v>1193</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1291</v>
+        <v>1358</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="182" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>208</v>
@@ -11803,313 +11782,383 @@
         <v>348</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1198</v>
+        <v>488</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>913</v>
+        <v>1022</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="183" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1129</v>
+        <v>255</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1185</v>
+        <v>349</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1276</v>
+        <v>714</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1375</v>
+        <v>1285</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="184" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1037</v>
+        <v>208</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1186</v>
+        <v>346</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>494</v>
+        <v>1192</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>868</v>
+        <v>754</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>1031</v>
+        <v>908</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>1376</v>
+        <v>1449</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="185" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1038</v>
+        <v>1123</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1210</v>
+        <v>628</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="186" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1211</v>
+        <v>629</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1278</v>
+        <v>715</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="187" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1130</v>
+        <v>1032</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="188" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>244</v>
+        <v>1033</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>352</v>
+        <v>1182</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>308</v>
+        <v>493</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>308</v>
+        <v>1205</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>308</v>
+        <v>1272</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>932</v>
+        <v>1027</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="189" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K189" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
+      <c r="B191" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G190" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I190" s="11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>1391</v>
+      <c r="B192" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I192" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>1383</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H106">
     <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>"none"</formula>
     </cfRule>
@@ -12119,99 +12168,99 @@
       <formula>NOT(ISERROR(SEARCH("none",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B64 H63:XFD64 A65:XFD162 A1:XFD47 A60:XFD62 A57:B59 H57:XFD59 A55:XFD56 J50:XFD50 A49:XFD49 A48:B48 J48:XFD48 A50:B54 H51:XFD54 A170:XFD170 A163:B169 H163:XFD169 A172:XFD1048576 A171:B171 H171:XFD171">
+  <conditionalFormatting sqref="A64:B65 H64:XFD65 A66:XFD164 A61:XFD63 A58:B60 H58:XFD60 A56:XFD57 J51:XFD51 A50:XFD50 A49:B49 J49:XFD49 A51:B55 H52:XFD55 A172:XFD172 A165:B171 H165:XFD171 A174:XFD1048576 A173:B173 H173:XFD173 A1:XFD48">
     <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C60:G60">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
+      <formula>LEN(TRIM(C60))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:G65">
+    <cfRule type="containsBlanks" dxfId="16" priority="19">
+      <formula>LEN(TRIM(C64))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C59:G59">
-    <cfRule type="containsBlanks" dxfId="17" priority="20">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:G64">
-    <cfRule type="containsBlanks" dxfId="16" priority="19">
-      <formula>LEN(TRIM(C63))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C58:G58">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="14" priority="17">
       <formula>LEN(TRIM(C58))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:G57">
-    <cfRule type="containsBlanks" dxfId="14" priority="17">
-      <formula>LEN(TRIM(C57))=0</formula>
+  <conditionalFormatting sqref="H49:I49">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="none">
+      <formula>NOT(ISERROR(SEARCH("none",H49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:I48">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="none">
-      <formula>NOT(ISERROR(SEARCH("none",H48)))</formula>
+  <conditionalFormatting sqref="C49:G49">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(C49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:G48">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(C48))=0</formula>
+  <conditionalFormatting sqref="H51:I51">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="none">
+      <formula>NOT(ISERROR(SEARCH("none",H51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:I50">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="none">
-      <formula>NOT(ISERROR(SEARCH("none",H50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:G50">
+  <conditionalFormatting sqref="C51:G51">
     <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(C50))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:G53">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(C51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:G54">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(C54))=0</formula>
+  <conditionalFormatting sqref="C52:G54">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(C52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C163:G163">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(C163))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164:G164">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(C164))=0</formula>
+  <conditionalFormatting sqref="C55:G55">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(C55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:G165">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(C165))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:G166">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="none">
-      <formula>NOT(ISERROR(SEARCH("none",C166)))</formula>
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(C166))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:G167">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(C167))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168:G168">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",C168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169:G169">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(C169))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C170:G170">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="none">
+      <formula>NOT(ISERROR(SEARCH("none",C170)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C171:G171">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(C171))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173:G173">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C171))=0</formula>
+      <formula>LEN(TRIM(C173))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
